--- a/order.xlsx
+++ b/order.xlsx
@@ -7,7 +7,7 @@
     <workbookView windowWidth="28800" windowHeight="12020"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="order" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -3011,8 +3011,8 @@
   <sheetPr/>
   <dimension ref="A1:I315"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
